--- a/lab3_student.xlsx
+++ b/lab3_student.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист2!$A$2:$F$17</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>Поступление товаров</t>
   </si>
@@ -66,18 +69,54 @@
   </si>
   <si>
     <t>Миксер</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Утюг Итог</t>
+  </si>
+  <si>
+    <t>Микровоновка Итог</t>
+  </si>
+  <si>
+    <t>Чайник Итог</t>
+  </si>
+  <si>
+    <t>Пылесос Итог</t>
+  </si>
+  <si>
+    <t>Телевизор Итог</t>
+  </si>
+  <si>
+    <t>Комбайн Итог</t>
+  </si>
+  <si>
+    <t>Холодильник Итог</t>
+  </si>
+  <si>
+    <t>Миксер Итог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,11 +160,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,11 +184,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F3:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,14 +535,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -495,20 +569,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3">
-        <v>42563</v>
+        <v>42935</v>
       </c>
       <c r="D3" s="2">
-        <v>70</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>140000</v>
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7800</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F17" si="0">D3*E3</f>
+        <v>780000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -524,11 +598,11 @@
       <c r="D4" s="2">
         <v>38</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>4500</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F17" si="0">D4*E4</f>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
         <v>171000</v>
       </c>
     </row>
@@ -537,20 +611,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
-        <v>42949</v>
+        <v>42885</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2900</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>58000</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>114000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -558,20 +632,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>42578</v>
+        <v>42811</v>
       </c>
       <c r="D6" s="2">
-        <v>102</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1200</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>122400</v>
+        <v>25</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
+        <v>75000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -587,10 +661,10 @@
       <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1500</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
@@ -600,20 +674,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>42586</v>
+        <v>41700</v>
       </c>
       <c r="D8" s="2">
-        <v>45</v>
-      </c>
-      <c r="E8" s="6">
-        <v>500</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>300000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,17 +698,17 @@
         <v>11</v>
       </c>
       <c r="C9" s="3">
-        <v>41700</v>
+        <v>42416</v>
       </c>
       <c r="D9" s="2">
-        <v>50</v>
-      </c>
-      <c r="E9" s="6">
-        <v>6000</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="5">
+        <v>12000</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>228000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -642,20 +716,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>42935</v>
+        <v>42991</v>
       </c>
       <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="6">
-        <v>7800</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>780000</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>144000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -663,20 +737,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>42416</v>
+        <v>42563</v>
       </c>
       <c r="D11" s="2">
-        <v>19</v>
-      </c>
-      <c r="E11" s="6">
-        <v>12000</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>228000</v>
+        <v>70</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>140000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,20 +758,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>42493</v>
+        <v>42602</v>
       </c>
       <c r="D12" s="2">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6">
-        <v>25000</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,17 +782,17 @@
         <v>7</v>
       </c>
       <c r="C13" s="3">
-        <v>42602</v>
+        <v>42949</v>
       </c>
       <c r="D13" s="2">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>58000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,20 +800,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>42885</v>
+        <v>42493</v>
       </c>
       <c r="D14" s="2">
-        <v>38</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>114000</v>
+        <v>56</v>
+      </c>
+      <c r="E14" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,17 +824,17 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>42809</v>
+        <v>42578</v>
       </c>
       <c r="D15" s="2">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1540</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>38500</v>
+        <v>102</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>122400</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,20 +842,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>42991</v>
+        <v>42586</v>
       </c>
       <c r="D16" s="2">
-        <v>32</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4500</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>144000</v>
+        <v>45</v>
+      </c>
+      <c r="E16" s="5">
+        <v>500</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>22500</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,23 +863,27 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>42811</v>
+        <v>42809</v>
       </c>
       <c r="D17" s="2">
         <v>25</v>
       </c>
-      <c r="E17" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>75000</v>
+      <c r="E17" s="5">
+        <v>1540</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>38500</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B3:F17">
+    <sortCondition ref="B3:B17"/>
+    <sortCondition ref="C3:C17"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -815,24 +893,912 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42935</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7800</v>
+      </c>
+      <c r="F3" s="5">
+        <f>D3*E3</f>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <f>SUBTOTAL(9,F3:F3)</f>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42970</v>
+      </c>
+      <c r="D5" s="2">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4500</v>
+      </c>
+      <c r="F5" s="5">
+        <f>D5*E5</f>
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <f>SUBTOTAL(9,F5:F5)</f>
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>42885</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <f>SUBTOTAL(9,F7:F7)</f>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>42811</v>
+      </c>
+      <c r="D9" s="2">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*E9</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42950</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <f>SUBTOTAL(9,F9:F10)</f>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>41700</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="5">
+        <f>D12*E12</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>42416</v>
+      </c>
+      <c r="D13" s="2">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5">
+        <v>12000</v>
+      </c>
+      <c r="F13" s="5">
+        <f>D13*E13</f>
+        <v>228000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42991</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4500</v>
+      </c>
+      <c r="F14" s="5">
+        <f>D14*E14</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <f>SUBTOTAL(9,F12:F14)</f>
+        <v>672000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42563</v>
+      </c>
+      <c r="D16" s="2">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="5">
+        <f>D16*E16</f>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>42602</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="5">
+        <f>D17*E17</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>42949</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F18" s="5">
+        <f>D18*E18</f>
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <f>SUBTOTAL(9,F16:F18)</f>
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42493</v>
+      </c>
+      <c r="D20" s="2">
+        <v>56</v>
+      </c>
+      <c r="E20" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F20" s="5">
+        <f>D20*E20</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <f>SUBTOTAL(9,F20:F20)</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>42578</v>
+      </c>
+      <c r="D22" s="2">
+        <v>102</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="5">
+        <f>D22*E22</f>
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>42586</v>
+      </c>
+      <c r="D23" s="2">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5">
+        <v>500</v>
+      </c>
+      <c r="F23" s="5">
+        <f>D23*E23</f>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>42809</v>
+      </c>
+      <c r="D24" s="2">
+        <v>25</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1540</v>
+      </c>
+      <c r="F24" s="12">
+        <f>D24*E24</f>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13">
+        <f>SUBTOTAL(9,F22:F24)</f>
+        <v>183400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="13">
+        <f>SUBTOTAL(9,F3:F24)</f>
+        <v>3617400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42935</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7800</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F17" si="0">D3*E3</f>
+        <v>780000</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42970</v>
+      </c>
+      <c r="D4" s="2">
+        <v>38</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4500</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>171000</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42885</v>
+      </c>
+      <c r="D5" s="2">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>114000</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42811</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
+        <v>75000</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>42950</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>41700</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>42416</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5">
+        <v>12000</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>228000</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42991</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42563</v>
+      </c>
+      <c r="D11" s="2">
+        <v>70</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>140000</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42602</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>42949</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2900</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>58000</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42493</v>
+      </c>
+      <c r="D14" s="2">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42578</v>
+      </c>
+      <c r="D15" s="2">
+        <v>102</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>122400</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42586</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5">
+        <v>500</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>42809</v>
+      </c>
+      <c r="D17" s="2">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1540</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>38500</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F17">
+    <filterColumn colId="2">
+      <dynamicFilter type="thisYear" val="42736" maxVal="43101"/>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters and="1">
+        <customFilter operator="greaterThan" val="3000"/>
+        <customFilter operator="lessThan" val="20000"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lab3_student.xlsx
+++ b/lab3_student.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Поступление товаров</t>
   </si>
@@ -69,33 +69,6 @@
   </si>
   <si>
     <t>Миксер</t>
-  </si>
-  <si>
-    <t>Общий итог</t>
-  </si>
-  <si>
-    <t>Утюг Итог</t>
-  </si>
-  <si>
-    <t>Микровоновка Итог</t>
-  </si>
-  <si>
-    <t>Чайник Итог</t>
-  </si>
-  <si>
-    <t>Пылесос Итог</t>
-  </si>
-  <si>
-    <t>Телевизор Итог</t>
-  </si>
-  <si>
-    <t>Комбайн Итог</t>
-  </si>
-  <si>
-    <t>Холодильник Итог</t>
-  </si>
-  <si>
-    <t>Миксер Итог</t>
   </si>
 </sst>
 </file>
@@ -895,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -909,9 +882,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -919,456 +890,204 @@
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3">
-        <v>42935</v>
-      </c>
-      <c r="D3" s="2">
-        <v>100</v>
-      </c>
-      <c r="E3" s="5">
-        <v>7800</v>
-      </c>
-      <c r="F3" s="5">
-        <f>D3*E3</f>
-        <v>780000</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <f>SUBTOTAL(9,F3:F3)</f>
-        <v>780000</v>
-      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>42970</v>
-      </c>
-      <c r="D5" s="2">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4500</v>
-      </c>
-      <c r="F5" s="5">
-        <f>D5*E5</f>
-        <v>171000</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <f>SUBTOTAL(9,F5:F5)</f>
-        <v>171000</v>
-      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <v>42885</v>
-      </c>
-      <c r="D7" s="2">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="5">
-        <f>D7*E7</f>
-        <v>114000</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <f>SUBTOTAL(9,F7:F7)</f>
-        <v>114000</v>
-      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>42811</v>
-      </c>
-      <c r="D9" s="2">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F9" s="5">
-        <f>D9*E9</f>
-        <v>75000</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>42950</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1500</v>
-      </c>
-      <c r="F10" s="5">
-        <f>D10*E10</f>
-        <v>9000</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <f>SUBTOTAL(9,F9:F10)</f>
-        <v>84000</v>
-      </c>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>41700</v>
-      </c>
-      <c r="D12" s="2">
-        <v>50</v>
-      </c>
-      <c r="E12" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F12" s="5">
-        <f>D12*E12</f>
-        <v>300000</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
-        <v>42416</v>
-      </c>
-      <c r="D13" s="2">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5">
-        <v>12000</v>
-      </c>
-      <c r="F13" s="5">
-        <f>D13*E13</f>
-        <v>228000</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
-        <v>42991</v>
-      </c>
-      <c r="D14" s="2">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4500</v>
-      </c>
-      <c r="F14" s="5">
-        <f>D14*E14</f>
-        <v>144000</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5">
-        <f>SUBTOTAL(9,F12:F14)</f>
-        <v>672000</v>
-      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3">
-        <v>42563</v>
-      </c>
-      <c r="D16" s="2">
-        <v>70</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F16" s="5">
-        <f>D16*E16</f>
-        <v>140000</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>42602</v>
-      </c>
-      <c r="D17" s="2">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="5">
-        <f>D17*E17</f>
-        <v>15000</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3">
-        <v>42949</v>
-      </c>
-      <c r="D18" s="2">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2900</v>
-      </c>
-      <c r="F18" s="5">
-        <f>D18*E18</f>
-        <v>58000</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <f>SUBTOTAL(9,F16:F18)</f>
-        <v>213000</v>
-      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3">
-        <v>42493</v>
-      </c>
-      <c r="D20" s="2">
-        <v>56</v>
-      </c>
-      <c r="E20" s="5">
-        <v>25000</v>
-      </c>
-      <c r="F20" s="5">
-        <f>D20*E20</f>
-        <v>1400000</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5">
-        <f>SUBTOTAL(9,F20:F20)</f>
-        <v>1400000</v>
-      </c>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3">
-        <v>42578</v>
-      </c>
-      <c r="D22" s="2">
-        <v>102</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1200</v>
-      </c>
-      <c r="F22" s="5">
-        <f>D22*E22</f>
-        <v>122400</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3">
-        <v>42586</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45</v>
-      </c>
-      <c r="E23" s="5">
-        <v>500</v>
-      </c>
-      <c r="F23" s="5">
-        <f>D23*E23</f>
-        <v>22500</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3">
-        <v>42809</v>
-      </c>
-      <c r="D24" s="2">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1540</v>
-      </c>
-      <c r="F24" s="12">
-        <f>D24*E24</f>
-        <v>38500</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="13">
-        <f>SUBTOTAL(9,F22:F24)</f>
-        <v>183400</v>
-      </c>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="13">
-        <f>SUBTOTAL(9,F3:F24)</f>
-        <v>3617400</v>
-      </c>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1383,7 +1102,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
